--- a/Master Sheet.xlsx
+++ b/Master Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>https://www.linkedin.com/jobs/view/app-developer-at-pennant-4265459576</t>
   </si>
@@ -70,6 +70,318 @@
   </si>
   <si>
     <t>https://www.southteams.com/blog</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/app-developer-at-melify-4209640355</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/app-developer-at-jj-provides-4251100243</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/app-developer-at-innserve-ltd-4168048332</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/app-developer-wi-fi-networks-at-braintrust-4262372443</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/app-developer-at-frenzi-app-4253299259</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/app-developer-at-hackajob-4251817513</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/app-developer-at-healf-4224239035</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/app-developer-at-gmax-trackstars-athletics-club-4269897971</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/app-developer-at-golfa-4225991143</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/app-developer-flutter-desktop-mobile-at-bedfont-scientific-ltd-4240531226</t>
+  </si>
+  <si>
+    <t>https://www.vegait.co.uk/software-solutions/software-development-agency</t>
+  </si>
+  <si>
+    <t>https://www.vegait.co.uk/what-we-do/mobile-apps-development</t>
+  </si>
+  <si>
+    <t>https://www.googleadservices.com/pagead/aclk?sa=L&amp;ai=DChsSEwiniJHl5NSOAxX5xzwCHQxfNWsYACICCAIQAhoCc2Y&amp;ae=2&amp;aspm=1&amp;co=1&amp;ase=2&amp;gclid=EAIaIQobChMIp4iR5eTUjgMV-cc8Ah0MXzVrEAMYASACEgL-l_D_BwE&amp;ohost=www.google.com&amp;cid=CAASJeRo-Y-rsvJgVLqQWI7yneHRy7fN-b_j5EIZkf6rI8oIKaic72M&amp;category=acrcp_v1_43&amp;sig=AOD64_2yvP1SRFLo-rOZIVwfyu9HbfXh0A&amp;adurl=&amp;q=</t>
+  </si>
+  <si>
+    <t>https://www.googleadservices.com/pagead/aclk?sa=L&amp;ai=DChsSEwiniJHl5NSOAxX5xzwCHQxfNWsYACICCAIQAxoCc2Y&amp;ae=2&amp;aspm=1&amp;co=1&amp;ase=2&amp;gclid=EAIaIQobChMIp4iR5eTUjgMV-cc8Ah0MXzVrEAMYASADEgKRqPD_BwE&amp;ohost=www.google.com&amp;cid=CAASJeRo-Y-rsvJgVLqQWI7yneHRy7fN-b_j5EIZkf6rI8oIKaic72M&amp;category=acrcp_v1_43&amp;sig=AOD64_2Ujnai63Z3EOiLIO7rqMsQjAj_eg&amp;adurl=&amp;q=</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-the-dev-hub-4265153354</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-matched-4256734156</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-digital-waffle-4270242852</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-trident-marketing-anglia-ltd-4274584019</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-fac-designs-4076977404</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-it-contractor-at-free-work-uk-4255326456</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-hirenza-4270405750</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-companion-group-4239069267</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-orange-4260472580</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-sensor-tower-4269807818</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-hirenza-4268942982</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-php-at-ache-4248377450</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-global-relay-4271817259</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-herd-digital-4271187036</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-twine-4264300634</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-designer-at-aej-consulting-ltd-4275585311</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-connexa-4226720848</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-edgewell-development-4269694390</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-searchability%C2%AE-4273694398</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-we-make-change-4267742774</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-signet-recruitment-and-retention-4187276928</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-tm-forum-4215847550</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-thrill-circle-4127659677</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-volunteasy-4264592656</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-reed-4204959052</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-unity-online%E2%84%A2-4153160726</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-tietalent-4262712129</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-wstech-zone-uk-4254145848</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-radius-4215137003</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-x4-technology-4256449603</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-technology-online-group-4235965427</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-dermamedical-4259478824</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-ste-services-ltd-4195055936</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-digital-rewards-group-ltd-4268329077</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-alpha-associates-recruitment-4234097988</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-xyz-4239364176</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-canonical-4182144273</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-hirenza-4269438937</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-we-are-seed-digital-4261403463</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-online-property-co-uk-4264296370</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-trial-at-strot-net-4207844864</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-wiraa-4249641066</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-we-make-change-4232752803</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-herd-digital-4249080836</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-the-traders-world-4249034583</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-front-end-at-lands-%E2%80%8B-end-4249702820</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/jobs/view/web-developer-at-radancy-united-kingdom-4208689441</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-k3-capital-group-4228789921</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-wix-at-we-make-change-4242532799</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-rn-jobforce-4231385208</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-outlier-4198770189</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-106-recruitment-4229819261</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-searchability%C2%AE-4231512454</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-wordpress-webflow-at-just-chill-4215370679</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-uk-apprenticeship-at-online-property-co-uk-4219069059</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/web-developer-at-micro1-4147662527</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/informatica-developer-jobs</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-ahti-interiors-4249154991</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/web-developer-at-canonical-2948680713</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/web-developer-at-tree-top-staffing-llc-4137538303</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-sr2-socially-responsible-recruitment-certified-b-corporation%E2%84%A2-4270185748</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/web-developer-ai-code-reviewer-german-speaker-at-micro1-4138066584</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-mid-level-at-reculture-4268580742</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/web-developer-at-micro1-4088886822</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-talent-pool-at-zeak-labs-4270135266</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-anything-headless-cms-experts-4238226605</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-kimiyi-ai-4237090833</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-co-founder-at-comfortlytravel-4139233592</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-kinetic-4262659474</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-argus-vision-b-v-4265299287</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-graduate-at-harrington-starr-4261411847</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-radius-4225735278</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-tietalent-4275259200</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-outlier-4198766419</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/web-developer-ai-code-reviewer-german-speaker-at-micro1-4131134190</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-coffee-design-ltd-4260270317</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-designer-office-based-role-no-hybrid-at-clarity-homecare-4264160717</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/web-developer-at-micro1-4098727544</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-react-django-at-steele-rose-limited-4270275537</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-and-design-intership-at-sam-control-4255199257</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-wordpress-html-css-php-javascript-mysql-at-xpertise-recruitment-4266713355</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-tietalent-4275251499</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/web-developer-at-micro1-4130251870</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/water-resources-data-tools-developer-modeller-31453-at-environment-agency-4273294638</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-intern-at-zygotelink-4265742234</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/web-developer-ai-code-reviewer-german-speaker-at-micro1-4163340479</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-tietalent-4245860168</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-digitalb-4128042850</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/implementation-engineer-at-clearcourse-4261617327</t>
+  </si>
+  <si>
+    <t>https://uk.linkedin.com/jobs/view/web-developer-at-aspurian-4249434068</t>
   </si>
 </sst>
 </file>
@@ -388,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,89 +711,609 @@
     <col min="1" max="1" customWidth="true" width="142.7109375"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s" s="0">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
